--- a/020.项目策划/010.项目策划/1、ZKR-人工智能编辑部系统-JH-项目总体计划-v1.0.xlsx
+++ b/020.项目策划/010.项目策划/1、ZKR-人工智能编辑部系统-JH-项目总体计划-v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\4、管理文档\验收文档\项目启动基线\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\020.项目策划\010.项目策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C9A3F-4936-4569-A00E-41EC64F6CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C106C6-954B-4E93-81CC-8097C1F944B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
   </bookViews>
   <sheets>
     <sheet name="文档信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
   <si>
     <t>任务名称</t>
   </si>
@@ -97,9 +97,6 @@
     <t>详细功能设计(基础功能设计/数据库字段设计/集成设计)</t>
   </si>
   <si>
-    <t>9 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   接口开发设计</t>
   </si>
   <si>
@@ -205,16 +202,7 @@
     <t xml:space="preserve">   生产环境部署</t>
   </si>
   <si>
-    <t xml:space="preserve">   上线问题跟踪支持</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   宣布上线成功/试运行</t>
-  </si>
-  <si>
     <t xml:space="preserve">   用户培训</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   系统初验</t>
   </si>
   <si>
     <t xml:space="preserve">   系统试运行</t>
@@ -401,6 +389,18 @@
   </si>
   <si>
     <t>童琛炳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   系统终验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   系统初验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 个工作日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -471,6 +471,7 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -478,17 +479,20 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -496,6 +500,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -674,14 +679,53 @@
     <xf numFmtId="31" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,53 +733,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,213 +1068,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44371</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="F8" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="15" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="17">
-        <v>44371</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="22" t="s">
+      <c r="E13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="F13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1287,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA75FD3-61FF-4A55-AFF4-E79D4369AD3F}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1421,7 +1426,7 @@
         <v>44370</v>
       </c>
       <c r="D9" s="4">
-        <v>44379</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1454,7 +1459,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -1488,10 +1493,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="D14" s="7">
-        <v>44379</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5">
@@ -1499,18 +1504,18 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="D15" s="4">
-        <v>44407</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>19</v>
@@ -1524,7 +1529,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -1538,7 +1543,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
@@ -1552,7 +1557,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
@@ -1566,10 +1571,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C20" s="4">
         <v>44389</v>
@@ -1580,7 +1585,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1594,7 +1599,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1608,7 +1613,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1622,7 +1627,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -1636,7 +1641,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -1650,7 +1655,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>19</v>
@@ -1664,10 +1669,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C27" s="4">
         <v>44403</v>
@@ -1678,10 +1683,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7">
         <v>44403</v>
@@ -1692,7 +1697,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>19</v>
@@ -1706,7 +1711,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -1720,7 +1725,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
@@ -1734,7 +1739,7 @@
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1748,7 +1753,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
@@ -1762,10 +1767,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C34" s="4">
         <v>44428</v>
@@ -1776,7 +1781,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
@@ -1790,7 +1795,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -1804,10 +1809,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C37" s="4">
         <v>44439</v>
@@ -1818,10 +1823,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>44439</v>
@@ -1832,10 +1837,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="7">
         <v>44445</v>
@@ -1846,7 +1851,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>19</v>
@@ -1860,10 +1865,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C41" s="4">
         <v>44456</v>
@@ -1874,7 +1879,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>19</v>
@@ -1888,7 +1893,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>19</v>
@@ -1902,10 +1907,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C44" s="4">
         <v>44389</v>
@@ -1916,7 +1921,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -1930,7 +1935,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
@@ -1944,10 +1949,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C47" s="7">
         <v>44399</v>
@@ -1958,10 +1963,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C48" s="7">
         <v>44407</v>
@@ -1972,10 +1977,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C49" s="7">
         <v>44417</v>
@@ -1986,10 +1991,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C50" s="7">
         <v>44425</v>
@@ -2000,10 +2005,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="7">
         <v>44433</v>
@@ -2014,7 +2019,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
@@ -2028,7 +2033,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -2042,10 +2047,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="4">
         <v>44456</v>
@@ -2056,7 +2061,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
@@ -2070,7 +2075,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
@@ -2084,10 +2089,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C57" s="4">
         <v>44410</v>
@@ -2098,7 +2103,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>5</v>
@@ -2112,7 +2117,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
@@ -2126,10 +2131,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C60" s="7">
         <v>44427</v>
@@ -2140,7 +2145,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>5</v>
@@ -2154,7 +2159,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>10</v>
@@ -2168,10 +2173,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C63" s="4">
         <v>44410</v>
@@ -2182,7 +2187,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>19</v>
@@ -2196,10 +2201,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="7">
         <v>44417</v>
@@ -2210,7 +2215,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>19</v>
@@ -2224,7 +2229,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>19</v>
@@ -2238,141 +2243,127 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C68" s="7">
         <v>44477</v>
       </c>
       <c r="D68" s="7">
-        <v>44490</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C69" s="7">
         <v>44491</v>
       </c>
       <c r="D69" s="7">
-        <v>44491</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="7">
-        <v>44491</v>
+        <v>44545</v>
       </c>
       <c r="D70" s="7">
-        <v>44497</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="7">
+        <v>44505</v>
+      </c>
+      <c r="D71" s="7">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="7">
-        <v>44498</v>
-      </c>
-      <c r="D71" s="7">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="6" t="s">
+      <c r="C72" s="4">
+        <v>44410</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="7">
-        <v>44505</v>
-      </c>
-      <c r="D72" s="7">
-        <v>44560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="B73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="7">
         <v>44410</v>
       </c>
-      <c r="D73" s="4">
-        <v>44449</v>
+      <c r="D73" s="7">
+        <v>44421</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" s="7">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="D74" s="7">
-        <v>44421</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C75" s="7">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="D75" s="7">
-        <v>44435</v>
+        <v>44442</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="7">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="D76" s="7">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="7">
-        <v>44445</v>
-      </c>
-      <c r="D77" s="7">
         <v>44449</v>
       </c>
     </row>
